--- a/data/pca/factorExposure/factorExposure_2018-11-29.xlsx
+++ b/data/pca/factorExposure/factorExposure_2018-11-29.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="108" uniqueCount="108">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="111" uniqueCount="111">
   <si>
     <t>factor1</t>
   </si>
@@ -29,6 +29,15 @@
   </si>
   <si>
     <t>factor5</t>
+  </si>
+  <si>
+    <t>factor6</t>
+  </si>
+  <si>
+    <t>factor7</t>
+  </si>
+  <si>
+    <t>factor8</t>
   </si>
   <si>
     <t>Constellation software inc/can</t>
@@ -695,13 +704,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:F104"/>
+  <dimension ref="A1:I104"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:6">
+    <row r="1" spans="1:9">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
@@ -717,70 +726,106 @@
       <c r="F1" s="1" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="2" spans="1:6">
+      <c r="G1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9">
       <c r="A2" s="1" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="B2">
-        <v>0.07800805260300912</v>
+        <v>0.05195903163829377</v>
       </c>
       <c r="C2">
-        <v>-0.0518857884791285</v>
+        <v>0.02836316918197321</v>
       </c>
       <c r="D2">
-        <v>0.06853146225269277</v>
+        <v>0.01907500814430867</v>
       </c>
       <c r="E2">
-        <v>0.0002758537429840955</v>
+        <v>-0.02965443977132922</v>
       </c>
       <c r="F2">
-        <v>-0.1150939193133892</v>
-      </c>
-    </row>
-    <row r="3" spans="1:6">
+        <v>-0.01394224463889598</v>
+      </c>
+      <c r="G2">
+        <v>-0.1075040273954305</v>
+      </c>
+      <c r="H2">
+        <v>-0.07350767363497789</v>
+      </c>
+      <c r="I2">
+        <v>-0.06336147058094613</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9">
       <c r="A3" s="1" t="s">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="B3">
-        <v>0.1797137108706647</v>
+        <v>0.1290096177043431</v>
       </c>
       <c r="C3">
-        <v>0.0282201298684719</v>
+        <v>0.06949898777301278</v>
       </c>
       <c r="D3">
-        <v>0.1392664843012576</v>
+        <v>0.005792951880861497</v>
       </c>
       <c r="E3">
-        <v>-0.05105916904257501</v>
+        <v>0.0222904556930779</v>
       </c>
       <c r="F3">
-        <v>-0.3736418910778777</v>
-      </c>
-    </row>
-    <row r="4" spans="1:6">
+        <v>-0.005278444013961677</v>
+      </c>
+      <c r="G3">
+        <v>-0.3593940176500695</v>
+      </c>
+      <c r="H3">
+        <v>-0.2804911901652128</v>
+      </c>
+      <c r="I3">
+        <v>-0.04834398458175707</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9">
       <c r="A4" s="1" t="s">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="B4">
-        <v>0.0728984653541291</v>
+        <v>0.05875649781694164</v>
       </c>
       <c r="C4">
-        <v>-0.02275560800903298</v>
+        <v>0.0408517403249278</v>
       </c>
       <c r="D4">
-        <v>0.05746161371564668</v>
+        <v>-0.01060435042860585</v>
       </c>
       <c r="E4">
-        <v>-0.04561804270993648</v>
+        <v>-0.02834137368208499</v>
       </c>
       <c r="F4">
-        <v>-0.05938629666144684</v>
-      </c>
-    </row>
-    <row r="5" spans="1:6">
+        <v>-0.04767247339238611</v>
+      </c>
+      <c r="G4">
+        <v>-0.06664180342397258</v>
+      </c>
+      <c r="H4">
+        <v>-0.0239085365478051</v>
+      </c>
+      <c r="I4">
+        <v>-0.04270902277847481</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9">
       <c r="A5" s="1" t="s">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="B5">
         <v>0</v>
@@ -797,190 +842,280 @@
       <c r="F5">
         <v>0</v>
       </c>
-    </row>
-    <row r="6" spans="1:6">
+      <c r="G5">
+        <v>0</v>
+      </c>
+      <c r="H5">
+        <v>0</v>
+      </c>
+      <c r="I5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9">
       <c r="A6" s="1" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="B6">
-        <v>0.003982491982671901</v>
+        <v>0.02785023456172246</v>
       </c>
       <c r="C6">
-        <v>7.55485746198227e-05</v>
+        <v>0.01663924480236563</v>
       </c>
       <c r="D6">
-        <v>0.0001074380359787237</v>
+        <v>-0.001670207221596353</v>
       </c>
       <c r="E6">
-        <v>0.004730657893276784</v>
+        <v>-0.002117961819587818</v>
       </c>
       <c r="F6">
-        <v>-0.001748839038433475</v>
-      </c>
-    </row>
-    <row r="7" spans="1:6">
+        <v>-0.02859891354657737</v>
+      </c>
+      <c r="G6">
+        <v>-0.01703926444491045</v>
+      </c>
+      <c r="H6">
+        <v>0.03290105132246852</v>
+      </c>
+      <c r="I6">
+        <v>0.007144215794223035</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9">
       <c r="A7" s="1" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="B7">
-        <v>0.03532358293723217</v>
+        <v>0.03049186735364018</v>
       </c>
       <c r="C7">
-        <v>-0.01797328582176676</v>
+        <v>0.01457062297585579</v>
       </c>
       <c r="D7">
-        <v>0.04322448724769459</v>
+        <v>-0.03382174156956812</v>
       </c>
       <c r="E7">
-        <v>-0.005306189099903532</v>
+        <v>-0.0170008559516994</v>
       </c>
       <c r="F7">
-        <v>-0.08202765467847171</v>
-      </c>
-    </row>
-    <row r="8" spans="1:6">
+        <v>-0.02104958068874849</v>
+      </c>
+      <c r="G7">
+        <v>-0.04934189613289738</v>
+      </c>
+      <c r="H7">
+        <v>-0.04713020695851055</v>
+      </c>
+      <c r="I7">
+        <v>0.001874962733281512</v>
+      </c>
+    </row>
+    <row r="8" spans="1:9">
       <c r="A8" s="1" t="s">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="B8">
-        <v>0.03853706921069763</v>
+        <v>0.01454244813037257</v>
       </c>
       <c r="C8">
-        <v>0.005595261700285666</v>
+        <v>0.04097799296014464</v>
       </c>
       <c r="D8">
-        <v>0.04673038893379682</v>
+        <v>-0.009636878361547587</v>
       </c>
       <c r="E8">
-        <v>-0.04408075568617566</v>
+        <v>-0.008432410908150004</v>
       </c>
       <c r="F8">
-        <v>-0.07621417013744176</v>
-      </c>
-    </row>
-    <row r="9" spans="1:6">
+        <v>-0.01903896985491575</v>
+      </c>
+      <c r="G8">
+        <v>-0.06671101888713589</v>
+      </c>
+      <c r="H8">
+        <v>-0.05393451493068332</v>
+      </c>
+      <c r="I8">
+        <v>-0.03292061064533702</v>
+      </c>
+    </row>
+    <row r="9" spans="1:9">
       <c r="A9" s="1" t="s">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="B9">
-        <v>0.05727416416260341</v>
+        <v>0.04869281129153308</v>
       </c>
       <c r="C9">
-        <v>-0.02553883554680308</v>
+        <v>0.03345194897925238</v>
       </c>
       <c r="D9">
-        <v>0.04262668179451309</v>
+        <v>-0.01406661399838519</v>
       </c>
       <c r="E9">
-        <v>-0.05681762584284517</v>
+        <v>-0.02546713422565952</v>
       </c>
       <c r="F9">
-        <v>-0.05354122692730031</v>
-      </c>
-    </row>
-    <row r="10" spans="1:6">
+        <v>-0.03132171123515218</v>
+      </c>
+      <c r="G9">
+        <v>-0.07312214715817103</v>
+      </c>
+      <c r="H9">
+        <v>-0.02637139057939062</v>
+      </c>
+      <c r="I9">
+        <v>-0.0434307929078423</v>
+      </c>
+    </row>
+    <row r="10" spans="1:9">
       <c r="A10" s="1" t="s">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="B10">
-        <v>0.04113308240311019</v>
+        <v>0.06551612593933491</v>
       </c>
       <c r="C10">
-        <v>-0.08479947550158178</v>
+        <v>-0.1577458317109526</v>
       </c>
       <c r="D10">
-        <v>-0.1127459050157632</v>
+        <v>0.008068813050520681</v>
       </c>
       <c r="E10">
-        <v>0.0836054530533866</v>
+        <v>0.01229328326770884</v>
       </c>
       <c r="F10">
-        <v>-0.0437779278737525</v>
-      </c>
-    </row>
-    <row r="11" spans="1:6">
+        <v>0.0548054428169454</v>
+      </c>
+      <c r="G10">
+        <v>-0.04745455537266659</v>
+      </c>
+      <c r="H10">
+        <v>-0.0319798684111554</v>
+      </c>
+      <c r="I10">
+        <v>-0.03750104923343612</v>
+      </c>
+    </row>
+    <row r="11" spans="1:9">
       <c r="A11" s="1" t="s">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="B11">
-        <v>0.04920315937384209</v>
+        <v>0.04099945421196079</v>
       </c>
       <c r="C11">
-        <v>-0.0005260218382282671</v>
+        <v>0.0374990600499702</v>
       </c>
       <c r="D11">
-        <v>0.0295531752962359</v>
+        <v>0.006908061998631337</v>
       </c>
       <c r="E11">
-        <v>-0.00619300814290925</v>
+        <v>-0.008498870305737264</v>
       </c>
       <c r="F11">
-        <v>-0.05024185375553809</v>
-      </c>
-    </row>
-    <row r="12" spans="1:6">
+        <v>-0.007181133359339183</v>
+      </c>
+      <c r="G11">
+        <v>-0.03794967432420145</v>
+      </c>
+      <c r="H11">
+        <v>-0.0001916255904854805</v>
+      </c>
+      <c r="I11">
+        <v>-0.01622285191351714</v>
+      </c>
+    </row>
+    <row r="12" spans="1:9">
       <c r="A12" s="1" t="s">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="B12">
-        <v>0.04212230276831256</v>
+        <v>0.03919139564075035</v>
       </c>
       <c r="C12">
-        <v>-0.00104634914349736</v>
+        <v>0.03418162021357123</v>
       </c>
       <c r="D12">
-        <v>0.02498084276835551</v>
+        <v>-0.004877440577194141</v>
       </c>
       <c r="E12">
-        <v>-0.02545519145531454</v>
+        <v>-0.00875557924986484</v>
       </c>
       <c r="F12">
-        <v>-0.04058549113250409</v>
-      </c>
-    </row>
-    <row r="13" spans="1:6">
+        <v>-0.01646541966777675</v>
+      </c>
+      <c r="G12">
+        <v>-0.01668195232284578</v>
+      </c>
+      <c r="H12">
+        <v>-0.003216380038166177</v>
+      </c>
+      <c r="I12">
+        <v>-0.007092145328754148</v>
+      </c>
+    </row>
+    <row r="13" spans="1:9">
       <c r="A13" s="1" t="s">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="B13">
-        <v>0.04578193282076966</v>
+        <v>0.03691165172412245</v>
       </c>
       <c r="C13">
-        <v>-0.01404859448992856</v>
+        <v>0.02113002399920652</v>
       </c>
       <c r="D13">
-        <v>0.04833672497198962</v>
+        <v>0.0182253190975589</v>
       </c>
       <c r="E13">
-        <v>0.01497416618019393</v>
+        <v>-0.002125407374225041</v>
       </c>
       <c r="F13">
-        <v>-0.1065899741412335</v>
-      </c>
-    </row>
-    <row r="14" spans="1:6">
+        <v>-0.0229922886946662</v>
+      </c>
+      <c r="G13">
+        <v>-0.08454876734108238</v>
+      </c>
+      <c r="H13">
+        <v>-0.03837806292551133</v>
+      </c>
+      <c r="I13">
+        <v>-0.03354960156109704</v>
+      </c>
+    </row>
+    <row r="14" spans="1:9">
       <c r="A14" s="1" t="s">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="B14">
-        <v>0.02324592924706158</v>
+        <v>0.01989112973108845</v>
       </c>
       <c r="C14">
-        <v>-0.01497511251333255</v>
+        <v>0.01778496205460964</v>
       </c>
       <c r="D14">
-        <v>0.04386721671212254</v>
+        <v>-0.004851103410200356</v>
       </c>
       <c r="E14">
-        <v>-0.02044840397359862</v>
+        <v>-0.0240774602572467</v>
       </c>
       <c r="F14">
-        <v>-0.03693289242086359</v>
-      </c>
-    </row>
-    <row r="15" spans="1:6">
+        <v>-0.01736037666228393</v>
+      </c>
+      <c r="G14">
+        <v>-0.03574002882178618</v>
+      </c>
+      <c r="H14">
+        <v>-0.0635691094620498</v>
+      </c>
+      <c r="I14">
+        <v>-0.01592394137275412</v>
+      </c>
+    </row>
+    <row r="15" spans="1:9">
       <c r="A15" s="1" t="s">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="B15">
         <v>0</v>
@@ -997,30 +1132,48 @@
       <c r="F15">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:6">
+      <c r="G15">
+        <v>0</v>
+      </c>
+      <c r="H15">
+        <v>0</v>
+      </c>
+      <c r="I15">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:9">
       <c r="A16" s="1" t="s">
-        <v>19</v>
+        <v>22</v>
       </c>
       <c r="B16">
-        <v>0.03875706512190267</v>
+        <v>0.03463090233016135</v>
       </c>
       <c r="C16">
-        <v>-0.0009122387760990654</v>
+        <v>0.03422309637060255</v>
       </c>
       <c r="D16">
-        <v>0.027267178273094</v>
+        <v>0.001731934669839562</v>
       </c>
       <c r="E16">
-        <v>-0.01006972442599169</v>
+        <v>-0.01052679900472844</v>
       </c>
       <c r="F16">
-        <v>-0.0375880933806863</v>
-      </c>
-    </row>
-    <row r="17" spans="1:6">
+        <v>-0.008998302458588936</v>
+      </c>
+      <c r="G16">
+        <v>-0.03233964179495683</v>
+      </c>
+      <c r="H16">
+        <v>-0.003402555490858643</v>
+      </c>
+      <c r="I16">
+        <v>-0.006053545958507042</v>
+      </c>
+    </row>
+    <row r="17" spans="1:9">
       <c r="A17" s="1" t="s">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="B17">
         <v>0</v>
@@ -1037,10 +1190,19 @@
       <c r="F17">
         <v>0</v>
       </c>
-    </row>
-    <row r="18" spans="1:6">
+      <c r="G17">
+        <v>0</v>
+      </c>
+      <c r="H17">
+        <v>0</v>
+      </c>
+      <c r="I17">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:9">
       <c r="A18" s="1" t="s">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="B18">
         <v>0</v>
@@ -1057,70 +1219,106 @@
       <c r="F18">
         <v>0</v>
       </c>
-    </row>
-    <row r="19" spans="1:6">
+      <c r="G18">
+        <v>0</v>
+      </c>
+      <c r="H18">
+        <v>0</v>
+      </c>
+      <c r="I18">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:9">
       <c r="A19" s="1" t="s">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="B19">
-        <v>0.05991084297289611</v>
+        <v>0.0454691638875571</v>
       </c>
       <c r="C19">
-        <v>0.007776593489739059</v>
+        <v>0.03984458934854209</v>
       </c>
       <c r="D19">
-        <v>0.04296612316408761</v>
+        <v>0.007374516285087275</v>
       </c>
       <c r="E19">
-        <v>-0.004537571475216089</v>
+        <v>-0.009407471108335213</v>
       </c>
       <c r="F19">
-        <v>-0.08901164361277306</v>
-      </c>
-    </row>
-    <row r="20" spans="1:6">
+        <v>-0.01534425723984733</v>
+      </c>
+      <c r="G19">
+        <v>-0.08612721545230936</v>
+      </c>
+      <c r="H19">
+        <v>-0.04757849832836866</v>
+      </c>
+      <c r="I19">
+        <v>-0.01908583982936613</v>
+      </c>
+    </row>
+    <row r="20" spans="1:9">
       <c r="A20" s="1" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="B20">
-        <v>0.02222608337159805</v>
+        <v>0.01509673994836573</v>
       </c>
       <c r="C20">
-        <v>-0.01125685902814842</v>
+        <v>0.01886165805356662</v>
       </c>
       <c r="D20">
-        <v>0.04190769091635312</v>
+        <v>-0.003157425154072594</v>
       </c>
       <c r="E20">
-        <v>-0.03188110346071917</v>
+        <v>-0.01279793379251857</v>
       </c>
       <c r="F20">
-        <v>-0.07015627459122491</v>
-      </c>
-    </row>
-    <row r="21" spans="1:6">
+        <v>-0.01597234776707505</v>
+      </c>
+      <c r="G20">
+        <v>-0.05612114382616759</v>
+      </c>
+      <c r="H20">
+        <v>-0.06091391846392672</v>
+      </c>
+      <c r="I20">
+        <v>-0.005355375972059408</v>
+      </c>
+    </row>
+    <row r="21" spans="1:9">
       <c r="A21" s="1" t="s">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="B21">
-        <v>0.02129095622706959</v>
+        <v>0.02824648272438027</v>
       </c>
       <c r="C21">
-        <v>0.008678219763789428</v>
+        <v>0.02267418166072489</v>
       </c>
       <c r="D21">
-        <v>0.03604601870619033</v>
+        <v>-0.01002651479340667</v>
       </c>
       <c r="E21">
-        <v>-0.005092919944016228</v>
+        <v>-0.005836370257384946</v>
       </c>
       <c r="F21">
-        <v>-0.08861187021668153</v>
-      </c>
-    </row>
-    <row r="22" spans="1:6">
+        <v>-0.005364417698200089</v>
+      </c>
+      <c r="G21">
+        <v>-0.06442233452419598</v>
+      </c>
+      <c r="H21">
+        <v>-0.02690496014856567</v>
+      </c>
+      <c r="I21">
+        <v>-0.05266782477436938</v>
+      </c>
+    </row>
+    <row r="22" spans="1:9">
       <c r="A22" s="1" t="s">
-        <v>25</v>
+        <v>28</v>
       </c>
       <c r="B22">
         <v>0</v>
@@ -1137,10 +1335,19 @@
       <c r="F22">
         <v>0</v>
       </c>
-    </row>
-    <row r="23" spans="1:6">
+      <c r="G22">
+        <v>0</v>
+      </c>
+      <c r="H22">
+        <v>0</v>
+      </c>
+      <c r="I22">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="1:9">
       <c r="A23" s="1" t="s">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="B23">
         <v>0</v>
@@ -1157,230 +1364,338 @@
       <c r="F23">
         <v>0</v>
       </c>
-    </row>
-    <row r="24" spans="1:6">
+      <c r="G23">
+        <v>0</v>
+      </c>
+      <c r="H23">
+        <v>0</v>
+      </c>
+      <c r="I23">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="1:9">
       <c r="A24" s="1" t="s">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="B24">
-        <v>0.03876893280253974</v>
+        <v>0.03297391053617035</v>
       </c>
       <c r="C24">
-        <v>0.0005529946086673284</v>
+        <v>0.0312510640285739</v>
       </c>
       <c r="D24">
-        <v>0.02544934221593122</v>
+        <v>0.0009351958611573441</v>
       </c>
       <c r="E24">
-        <v>-0.01288226514638806</v>
+        <v>-0.008117249735413818</v>
       </c>
       <c r="F24">
-        <v>-0.04790685868178619</v>
-      </c>
-    </row>
-    <row r="25" spans="1:6">
+        <v>-0.008647755029062393</v>
+      </c>
+      <c r="G24">
+        <v>-0.03617588632521828</v>
+      </c>
+      <c r="H24">
+        <v>-0.0005904125816390103</v>
+      </c>
+      <c r="I24">
+        <v>-0.009137440301908011</v>
+      </c>
+    </row>
+    <row r="25" spans="1:9">
       <c r="A25" s="1" t="s">
-        <v>28</v>
+        <v>31</v>
       </c>
       <c r="B25">
-        <v>0.04119858789877325</v>
+        <v>0.04150222938481648</v>
       </c>
       <c r="C25">
-        <v>-0.002750062983043955</v>
+        <v>0.03094126511887966</v>
       </c>
       <c r="D25">
-        <v>0.02901560162431712</v>
+        <v>0.002048811342126394</v>
       </c>
       <c r="E25">
-        <v>-0.01622385224918623</v>
+        <v>-0.007279525373036825</v>
       </c>
       <c r="F25">
-        <v>-0.05462017321784626</v>
-      </c>
-    </row>
-    <row r="26" spans="1:6">
+        <v>-0.01650814341048356</v>
+      </c>
+      <c r="G25">
+        <v>-0.04616060161290211</v>
+      </c>
+      <c r="H25">
+        <v>0.003252697151599901</v>
+      </c>
+      <c r="I25">
+        <v>-0.01719471604034179</v>
+      </c>
+    </row>
+    <row r="26" spans="1:9">
       <c r="A26" s="1" t="s">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="B26">
-        <v>0.01835740845404028</v>
+        <v>0.01299114405593999</v>
       </c>
       <c r="C26">
-        <v>0.005901587383092484</v>
+        <v>0.02277129369663984</v>
       </c>
       <c r="D26">
-        <v>0.05321729007646625</v>
+        <v>0.006327350080145349</v>
       </c>
       <c r="E26">
-        <v>-0.002802596601740863</v>
+        <v>0.004309208658427235</v>
       </c>
       <c r="F26">
-        <v>-0.0391072614317987</v>
-      </c>
-    </row>
-    <row r="27" spans="1:6">
+        <v>-0.01922513154374436</v>
+      </c>
+      <c r="G26">
+        <v>-0.04007623286427558</v>
+      </c>
+      <c r="H26">
+        <v>-0.03910143260973074</v>
+      </c>
+      <c r="I26">
+        <v>-0.01335253972407036</v>
+      </c>
+    </row>
+    <row r="27" spans="1:9">
       <c r="A27" s="1" t="s">
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="B27">
-        <v>0.1025627185912132</v>
+        <v>0.05799668742948991</v>
       </c>
       <c r="C27">
-        <v>-0.03440850619552983</v>
+        <v>0.02135829864358088</v>
       </c>
       <c r="D27">
-        <v>0.04002780237105572</v>
+        <v>-0.001244177707047964</v>
       </c>
       <c r="E27">
-        <v>-0.03764578413744851</v>
+        <v>-0.02503309822737243</v>
       </c>
       <c r="F27">
-        <v>-0.05079009859767943</v>
-      </c>
-    </row>
-    <row r="28" spans="1:6">
+        <v>-0.009215185441047559</v>
+      </c>
+      <c r="G27">
+        <v>-0.04077470102318834</v>
+      </c>
+      <c r="H27">
+        <v>-0.03497322947126692</v>
+      </c>
+      <c r="I27">
+        <v>-0.01814554916550692</v>
+      </c>
+    </row>
+    <row r="28" spans="1:9">
       <c r="A28" s="1" t="s">
-        <v>31</v>
+        <v>34</v>
       </c>
       <c r="B28">
-        <v>0.05989073372821976</v>
+        <v>0.09521509544930348</v>
       </c>
       <c r="C28">
-        <v>-0.1090061847667185</v>
+        <v>-0.2389791447187069</v>
       </c>
       <c r="D28">
-        <v>-0.186612597671227</v>
+        <v>0.004595679468114695</v>
       </c>
       <c r="E28">
-        <v>0.1163869706748388</v>
+        <v>0.02493086815705624</v>
       </c>
       <c r="F28">
-        <v>-0.01099402205590668</v>
-      </c>
-    </row>
-    <row r="29" spans="1:6">
+        <v>0.06902103300912367</v>
+      </c>
+      <c r="G28">
+        <v>-0.02240717962064342</v>
+      </c>
+      <c r="H28">
+        <v>-0.05148402432624348</v>
+      </c>
+      <c r="I28">
+        <v>-0.02892877939398619</v>
+      </c>
+    </row>
+    <row r="29" spans="1:9">
       <c r="A29" s="1" t="s">
-        <v>32</v>
+        <v>35</v>
       </c>
       <c r="B29">
-        <v>0.02486816347905749</v>
+        <v>0.02149718082957559</v>
       </c>
       <c r="C29">
-        <v>-0.009534337600165976</v>
+        <v>0.01880583171720389</v>
       </c>
       <c r="D29">
-        <v>0.04380988387972504</v>
+        <v>-0.006739629594185092</v>
       </c>
       <c r="E29">
-        <v>-0.03228971476335184</v>
+        <v>-0.02285559821537994</v>
       </c>
       <c r="F29">
-        <v>-0.02019053727723727</v>
-      </c>
-    </row>
-    <row r="30" spans="1:6">
+        <v>-0.02327681636009395</v>
+      </c>
+      <c r="G29">
+        <v>-0.02860945114168351</v>
+      </c>
+      <c r="H29">
+        <v>-0.06141252900771763</v>
+      </c>
+      <c r="I29">
+        <v>-0.01935338338942502</v>
+      </c>
+    </row>
+    <row r="30" spans="1:9">
       <c r="A30" s="1" t="s">
-        <v>33</v>
+        <v>36</v>
       </c>
       <c r="B30">
-        <v>0.09794807079574604</v>
+        <v>0.07926606395288918</v>
       </c>
       <c r="C30">
-        <v>-0.0487153268863656</v>
+        <v>0.05164299889025759</v>
       </c>
       <c r="D30">
-        <v>0.06853073732826748</v>
+        <v>0.04401174399877103</v>
       </c>
       <c r="E30">
-        <v>-0.0195800885850616</v>
+        <v>-0.03741530642993468</v>
       </c>
       <c r="F30">
-        <v>-0.1044016328911815</v>
-      </c>
-    </row>
-    <row r="31" spans="1:6">
+        <v>-0.03970924858826879</v>
+      </c>
+      <c r="G30">
+        <v>-0.09755705568730905</v>
+      </c>
+      <c r="H30">
+        <v>-0.01463738660294659</v>
+      </c>
+      <c r="I30">
+        <v>0.004890087279412138</v>
+      </c>
+    </row>
+    <row r="31" spans="1:9">
       <c r="A31" s="1" t="s">
-        <v>34</v>
+        <v>37</v>
       </c>
       <c r="B31">
-        <v>0.05605492743625948</v>
+        <v>0.05341119755722849</v>
       </c>
       <c r="C31">
-        <v>-0.0153730486325416</v>
+        <v>0.02105855098587739</v>
       </c>
       <c r="D31">
-        <v>0.03721240695773427</v>
+        <v>0.008417754600749786</v>
       </c>
       <c r="E31">
-        <v>0.02484062486416266</v>
+        <v>-0.02571736412109937</v>
       </c>
       <c r="F31">
-        <v>0.01853392659525325</v>
-      </c>
-    </row>
-    <row r="32" spans="1:6">
+        <v>0.01085762305242926</v>
+      </c>
+      <c r="G31">
+        <v>0.002125681294185054</v>
+      </c>
+      <c r="H31">
+        <v>-0.056364625317521</v>
+      </c>
+      <c r="I31">
+        <v>-0.03989352717410882</v>
+      </c>
+    </row>
+    <row r="32" spans="1:9">
       <c r="A32" s="1" t="s">
-        <v>35</v>
+        <v>38</v>
       </c>
       <c r="B32">
-        <v>0.05297673305903546</v>
+        <v>0.02957673320340578</v>
       </c>
       <c r="C32">
-        <v>-0.01117847328835665</v>
+        <v>0.03946424887505122</v>
       </c>
       <c r="D32">
-        <v>0.05363153467020934</v>
+        <v>-0.01328937840186985</v>
       </c>
       <c r="E32">
-        <v>-0.03578680243774869</v>
+        <v>-0.04338643659603562</v>
       </c>
       <c r="F32">
-        <v>-0.07939758996933093</v>
-      </c>
-    </row>
-    <row r="33" spans="1:6">
+        <v>-0.01681401438957611</v>
+      </c>
+      <c r="G32">
+        <v>-0.08540616324205587</v>
+      </c>
+      <c r="H32">
+        <v>-0.005979783125498023</v>
+      </c>
+      <c r="I32">
+        <v>-0.002501267094572573</v>
+      </c>
+    </row>
+    <row r="33" spans="1:9">
       <c r="A33" s="1" t="s">
-        <v>36</v>
+        <v>39</v>
       </c>
       <c r="B33">
-        <v>0.04991769399400171</v>
+        <v>0.04304534656307032</v>
       </c>
       <c r="C33">
-        <v>0.006511669328858159</v>
+        <v>0.04995187057199305</v>
       </c>
       <c r="D33">
-        <v>0.07532040265480308</v>
+        <v>0.02159845758482168</v>
       </c>
       <c r="E33">
-        <v>-0.01406677093896226</v>
+        <v>-0.005970168405414123</v>
       </c>
       <c r="F33">
-        <v>-0.07348046020280151</v>
-      </c>
-    </row>
-    <row r="34" spans="1:6">
+        <v>-0.009719347221673785</v>
+      </c>
+      <c r="G33">
+        <v>-0.06657266105693165</v>
+      </c>
+      <c r="H33">
+        <v>-0.04903707165040663</v>
+      </c>
+      <c r="I33">
+        <v>-0.03496440067089805</v>
+      </c>
+    </row>
+    <row r="34" spans="1:9">
       <c r="A34" s="1" t="s">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="B34">
-        <v>0.04025004380952855</v>
+        <v>0.03594673573770605</v>
       </c>
       <c r="C34">
-        <v>-0.008074257648642095</v>
+        <v>0.03628209858413877</v>
       </c>
       <c r="D34">
-        <v>0.0329719367222472</v>
+        <v>-0.004365992521914012</v>
       </c>
       <c r="E34">
-        <v>-0.01769581620290803</v>
+        <v>-0.02138072232137167</v>
       </c>
       <c r="F34">
-        <v>-0.04179638949443502</v>
-      </c>
-    </row>
-    <row r="35" spans="1:6">
+        <v>-0.007321461462452024</v>
+      </c>
+      <c r="G34">
+        <v>-0.03817436470788231</v>
+      </c>
+      <c r="H34">
+        <v>-0.00299454080161798</v>
+      </c>
+      <c r="I34">
+        <v>-0.01214227266844074</v>
+      </c>
+    </row>
+    <row r="35" spans="1:9">
       <c r="A35" s="1" t="s">
-        <v>38</v>
+        <v>41</v>
       </c>
       <c r="B35">
         <v>0</v>
@@ -1397,30 +1712,48 @@
       <c r="F35">
         <v>0</v>
       </c>
-    </row>
-    <row r="36" spans="1:6">
+      <c r="G35">
+        <v>0</v>
+      </c>
+      <c r="H35">
+        <v>0</v>
+      </c>
+      <c r="I35">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="36" spans="1:9">
       <c r="A36" s="1" t="s">
-        <v>39</v>
+        <v>42</v>
       </c>
       <c r="B36">
-        <v>0.01573977958591656</v>
+        <v>0.01777271150717191</v>
       </c>
       <c r="C36">
-        <v>-0.01368257267334449</v>
+        <v>0.0006555044585964182</v>
       </c>
       <c r="D36">
-        <v>0.01232520284008969</v>
+        <v>-0.002549548879136948</v>
       </c>
       <c r="E36">
-        <v>-0.009744807021734485</v>
+        <v>-0.007931592043733279</v>
       </c>
       <c r="F36">
-        <v>-0.0241406032055891</v>
-      </c>
-    </row>
-    <row r="37" spans="1:6">
+        <v>-0.01193499138989823</v>
+      </c>
+      <c r="G36">
+        <v>-0.02384113621914414</v>
+      </c>
+      <c r="H36">
+        <v>-0.03506570770474066</v>
+      </c>
+      <c r="I36">
+        <v>-0.02399465846888492</v>
+      </c>
+    </row>
+    <row r="37" spans="1:9">
       <c r="A37" s="1" t="s">
-        <v>40</v>
+        <v>43</v>
       </c>
       <c r="B37">
         <v>0</v>
@@ -1437,150 +1770,222 @@
       <c r="F37">
         <v>0</v>
       </c>
-    </row>
-    <row r="38" spans="1:6">
+      <c r="G37">
+        <v>0</v>
+      </c>
+      <c r="H37">
+        <v>0</v>
+      </c>
+      <c r="I37">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="38" spans="1:9">
       <c r="A38" s="1" t="s">
-        <v>41</v>
+        <v>44</v>
       </c>
       <c r="B38">
-        <v>0.01729283324061174</v>
+        <v>0.02113372791442466</v>
       </c>
       <c r="C38">
-        <v>-0.006617883417755156</v>
+        <v>0.007061359580285406</v>
       </c>
       <c r="D38">
-        <v>-0.01136381128648046</v>
+        <v>-0.005698248840875872</v>
       </c>
       <c r="E38">
-        <v>-0.005695901759328312</v>
+        <v>-0.01176279341889368</v>
       </c>
       <c r="F38">
-        <v>-0.0158754578527874</v>
-      </c>
-    </row>
-    <row r="39" spans="1:6">
+        <v>0.01974177627024242</v>
+      </c>
+      <c r="G38">
+        <v>-0.04065146524032147</v>
+      </c>
+      <c r="H38">
+        <v>-0.02675894191746116</v>
+      </c>
+      <c r="I38">
+        <v>-0.02914787555099732</v>
+      </c>
+    </row>
+    <row r="39" spans="1:9">
       <c r="A39" s="1" t="s">
-        <v>42</v>
+        <v>45</v>
       </c>
       <c r="B39">
-        <v>0.05665110310513592</v>
+        <v>0.04223988012172421</v>
       </c>
       <c r="C39">
-        <v>-0.007622633435206781</v>
+        <v>0.05229648665668417</v>
       </c>
       <c r="D39">
-        <v>0.04554895760740232</v>
+        <v>0.007380311199602279</v>
       </c>
       <c r="E39">
-        <v>-0.003576912640832046</v>
+        <v>-0.01633475969888683</v>
       </c>
       <c r="F39">
-        <v>-0.04214522650448468</v>
-      </c>
-    </row>
-    <row r="40" spans="1:6">
+        <v>-0.02440357928616573</v>
+      </c>
+      <c r="G39">
+        <v>-0.05749876988261341</v>
+      </c>
+      <c r="H39">
+        <v>0.005874968502048358</v>
+      </c>
+      <c r="I39">
+        <v>-0.02394366547177572</v>
+      </c>
+    </row>
+    <row r="40" spans="1:9">
       <c r="A40" s="1" t="s">
-        <v>43</v>
+        <v>46</v>
       </c>
       <c r="B40">
-        <v>0.05281925252601592</v>
+        <v>0.04376913252079605</v>
       </c>
       <c r="C40">
-        <v>-0.02668273946244227</v>
+        <v>0.03959478075646484</v>
       </c>
       <c r="D40">
-        <v>0.07400310602439801</v>
+        <v>0.02437120098283842</v>
       </c>
       <c r="E40">
-        <v>0.01154277975835925</v>
+        <v>-0.02277152363319504</v>
       </c>
       <c r="F40">
-        <v>-0.08480291781424268</v>
-      </c>
-    </row>
-    <row r="41" spans="1:6">
+        <v>-0.02259381800680236</v>
+      </c>
+      <c r="G40">
+        <v>-0.07625647466006023</v>
+      </c>
+      <c r="H40">
+        <v>-0.03767488223335756</v>
+      </c>
+      <c r="I40">
+        <v>-0.03165023427725866</v>
+      </c>
+    </row>
+    <row r="41" spans="1:9">
       <c r="A41" s="1" t="s">
-        <v>44</v>
+        <v>47</v>
       </c>
       <c r="B41">
-        <v>-0.009751145225607938</v>
+        <v>0.001286603574127315</v>
       </c>
       <c r="C41">
-        <v>0.003808587563010119</v>
+        <v>0.002650832742859567</v>
       </c>
       <c r="D41">
-        <v>0.02644384851139068</v>
+        <v>0.0003981259171723912</v>
       </c>
       <c r="E41">
-        <v>-0.01410630363678814</v>
+        <v>-0.005980870436585821</v>
       </c>
       <c r="F41">
-        <v>0.01027621942555033</v>
-      </c>
-    </row>
-    <row r="42" spans="1:6">
+        <v>0.0006127521647972243</v>
+      </c>
+      <c r="G41">
+        <v>-0.002293006884398207</v>
+      </c>
+      <c r="H41">
+        <v>-0.05226346960845001</v>
+      </c>
+      <c r="I41">
+        <v>-0.03597308408856863</v>
+      </c>
+    </row>
+    <row r="42" spans="1:9">
       <c r="A42" s="1" t="s">
-        <v>45</v>
+        <v>48</v>
       </c>
       <c r="B42">
-        <v>0.3299904881725148</v>
+        <v>0.2338990854972771</v>
       </c>
       <c r="C42">
-        <v>0.875200231117922</v>
+        <v>0.3257172276763107</v>
       </c>
       <c r="D42">
-        <v>-0.1693815906462655</v>
+        <v>0.04704871772160446</v>
       </c>
       <c r="E42">
-        <v>0.2499660414690362</v>
+        <v>0.8162733396003051</v>
       </c>
       <c r="F42">
-        <v>0.05006394041871483</v>
-      </c>
-    </row>
-    <row r="43" spans="1:6">
+        <v>0.3474716809084039</v>
+      </c>
+      <c r="G42">
+        <v>0.153270015750983</v>
+      </c>
+      <c r="H42">
+        <v>0.01490810034117432</v>
+      </c>
+      <c r="I42">
+        <v>0.009612811044106039</v>
+      </c>
+    </row>
+    <row r="43" spans="1:9">
       <c r="A43" s="1" t="s">
-        <v>46</v>
+        <v>49</v>
       </c>
       <c r="B43">
-        <v>-0.01021311372714054</v>
+        <v>0.002222025654726492</v>
       </c>
       <c r="C43">
-        <v>0.002302475807322275</v>
+        <v>0.003531601819074446</v>
       </c>
       <c r="D43">
-        <v>0.0276090439315204</v>
+        <v>0.003260422228384511</v>
       </c>
       <c r="E43">
-        <v>-0.007033359001044959</v>
+        <v>-0.001785481688789729</v>
       </c>
       <c r="F43">
-        <v>-0.02203090437064839</v>
-      </c>
-    </row>
-    <row r="44" spans="1:6">
+        <v>-0.00514481982162805</v>
+      </c>
+      <c r="G43">
+        <v>-0.01281968822471282</v>
+      </c>
+      <c r="H43">
+        <v>-0.04699024012701299</v>
+      </c>
+      <c r="I43">
+        <v>-0.02040559015749708</v>
+      </c>
+    </row>
+    <row r="44" spans="1:9">
       <c r="A44" s="1" t="s">
-        <v>47</v>
+        <v>50</v>
       </c>
       <c r="B44">
-        <v>0.02642665519321163</v>
+        <v>0.01679029710967837</v>
       </c>
       <c r="C44">
-        <v>0.004828586691486284</v>
+        <v>0.03313917362258616</v>
       </c>
       <c r="D44">
-        <v>0.06179543567223101</v>
+        <v>-0.002173432737582243</v>
       </c>
       <c r="E44">
-        <v>-0.02031397209357624</v>
+        <v>-0.004557112948090795</v>
       </c>
       <c r="F44">
-        <v>-0.1137279739333311</v>
-      </c>
-    </row>
-    <row r="45" spans="1:6">
+        <v>-0.007310044790465408</v>
+      </c>
+      <c r="G44">
+        <v>-0.1088115790933215</v>
+      </c>
+      <c r="H44">
+        <v>-0.09898191651302532</v>
+      </c>
+      <c r="I44">
+        <v>-0.04731576362700826</v>
+      </c>
+    </row>
+    <row r="45" spans="1:9">
       <c r="A45" s="1" t="s">
-        <v>48</v>
+        <v>51</v>
       </c>
       <c r="B45">
         <v>0</v>
@@ -1597,70 +2002,106 @@
       <c r="F45">
         <v>0</v>
       </c>
-    </row>
-    <row r="46" spans="1:6">
+      <c r="G45">
+        <v>0</v>
+      </c>
+      <c r="H45">
+        <v>0</v>
+      </c>
+      <c r="I45">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="1:9">
       <c r="A46" s="1" t="s">
-        <v>49</v>
+        <v>52</v>
       </c>
       <c r="B46">
-        <v>0.02847840236689525</v>
+        <v>0.02127062295001094</v>
       </c>
       <c r="C46">
-        <v>-0.008837959901489756</v>
+        <v>0.03099900483362509</v>
       </c>
       <c r="D46">
-        <v>0.0552544637651314</v>
+        <v>0.005709337405563485</v>
       </c>
       <c r="E46">
-        <v>-0.01898375616037366</v>
+        <v>-0.02594402546603334</v>
       </c>
       <c r="F46">
-        <v>-0.01648973677904843</v>
-      </c>
-    </row>
-    <row r="47" spans="1:6">
+        <v>-0.02592551527960209</v>
+      </c>
+      <c r="G46">
+        <v>-0.04215209744448162</v>
+      </c>
+      <c r="H46">
+        <v>-0.06539503125277607</v>
+      </c>
+      <c r="I46">
+        <v>-0.01878620506676334</v>
+      </c>
+    </row>
+    <row r="47" spans="1:9">
       <c r="A47" s="1" t="s">
-        <v>50</v>
+        <v>53</v>
       </c>
       <c r="B47">
-        <v>0.08286210130655194</v>
+        <v>0.08003205455259077</v>
       </c>
       <c r="C47">
-        <v>-0.022443925060717</v>
+        <v>0.03115369361432488</v>
       </c>
       <c r="D47">
-        <v>0.03987136841335888</v>
+        <v>0.003739799018005039</v>
       </c>
       <c r="E47">
-        <v>-0.0176348894591491</v>
+        <v>-0.03597256851292396</v>
       </c>
       <c r="F47">
-        <v>0.02805148914406356</v>
-      </c>
-    </row>
-    <row r="48" spans="1:6">
+        <v>0.005029062413641709</v>
+      </c>
+      <c r="G47">
+        <v>0.02584150420889519</v>
+      </c>
+      <c r="H47">
+        <v>-0.06891748111239954</v>
+      </c>
+      <c r="I47">
+        <v>-0.02438911570167111</v>
+      </c>
+    </row>
+    <row r="48" spans="1:9">
       <c r="A48" s="1" t="s">
-        <v>51</v>
+        <v>54</v>
       </c>
       <c r="B48">
-        <v>0.01220438123131177</v>
+        <v>0.01958501103858015</v>
       </c>
       <c r="C48">
-        <v>-0.007966843350513878</v>
+        <v>0.01191510301648619</v>
       </c>
       <c r="D48">
-        <v>0.03229353086433014</v>
+        <v>-5.322478893618084e-05</v>
       </c>
       <c r="E48">
-        <v>-0.01282139208560117</v>
+        <v>-0.01074219284917539</v>
       </c>
       <c r="F48">
-        <v>-0.03402526743570901</v>
-      </c>
-    </row>
-    <row r="49" spans="1:6">
+        <v>-0.0119607284168733</v>
+      </c>
+      <c r="G48">
+        <v>-0.0259948534504832</v>
+      </c>
+      <c r="H48">
+        <v>-0.0311649735795803</v>
+      </c>
+      <c r="I48">
+        <v>-0.01734672672025033</v>
+      </c>
+    </row>
+    <row r="49" spans="1:9">
       <c r="A49" s="1" t="s">
-        <v>52</v>
+        <v>55</v>
       </c>
       <c r="B49">
         <v>0</v>
@@ -1677,50 +2118,77 @@
       <c r="F49">
         <v>0</v>
       </c>
-    </row>
-    <row r="50" spans="1:6">
+      <c r="G49">
+        <v>0</v>
+      </c>
+      <c r="H49">
+        <v>0</v>
+      </c>
+      <c r="I49">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="1:9">
       <c r="A50" s="1" t="s">
-        <v>53</v>
+        <v>56</v>
       </c>
       <c r="B50">
-        <v>0.08175264595674606</v>
+        <v>0.07924236110447588</v>
       </c>
       <c r="C50">
-        <v>-0.004802681291776308</v>
+        <v>0.04565755744018471</v>
       </c>
       <c r="D50">
-        <v>0.0393048831048223</v>
+        <v>-0.008711805128728019</v>
       </c>
       <c r="E50">
-        <v>0.003801362496193428</v>
+        <v>-0.0228422275632684</v>
       </c>
       <c r="F50">
-        <v>0.009595455104988283</v>
-      </c>
-    </row>
-    <row r="51" spans="1:6">
+        <v>0.004137930841377212</v>
+      </c>
+      <c r="G50">
+        <v>0.008293995263343077</v>
+      </c>
+      <c r="H50">
+        <v>-0.05037466654838375</v>
+      </c>
+      <c r="I50">
+        <v>0.007825711687606748</v>
+      </c>
+    </row>
+    <row r="51" spans="1:9">
       <c r="A51" s="1" t="s">
-        <v>54</v>
+        <v>57</v>
       </c>
       <c r="B51">
-        <v>0.04830296530154146</v>
+        <v>0.03133897955390062</v>
       </c>
       <c r="C51">
-        <v>0.002089317359316631</v>
+        <v>-0.002391776946580662</v>
       </c>
       <c r="D51">
-        <v>0.02446251331258954</v>
+        <v>0.01085380716439244</v>
       </c>
       <c r="E51">
-        <v>0.03951041406464845</v>
+        <v>0.009723847954105018</v>
       </c>
       <c r="F51">
-        <v>-0.07325025976321228</v>
-      </c>
-    </row>
-    <row r="52" spans="1:6">
+        <v>0.009997456600820685</v>
+      </c>
+      <c r="G51">
+        <v>-0.08382792455792513</v>
+      </c>
+      <c r="H51">
+        <v>-0.08459449498893035</v>
+      </c>
+      <c r="I51">
+        <v>-0.05159375903418745</v>
+      </c>
+    </row>
+    <row r="52" spans="1:9">
       <c r="A52" s="1" t="s">
-        <v>55</v>
+        <v>58</v>
       </c>
       <c r="B52">
         <v>0</v>
@@ -1737,190 +2205,280 @@
       <c r="F52">
         <v>0</v>
       </c>
-    </row>
-    <row r="53" spans="1:6">
+      <c r="G52">
+        <v>0</v>
+      </c>
+      <c r="H52">
+        <v>0</v>
+      </c>
+      <c r="I52">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="53" spans="1:9">
       <c r="A53" s="1" t="s">
-        <v>56</v>
+        <v>59</v>
       </c>
       <c r="B53">
-        <v>0.1186607885396235</v>
+        <v>0.1087677521803874</v>
       </c>
       <c r="C53">
-        <v>-0.02226488942568933</v>
+        <v>0.05785534237067039</v>
       </c>
       <c r="D53">
-        <v>0.07140493284998881</v>
+        <v>0.005882483358707838</v>
       </c>
       <c r="E53">
-        <v>-0.01365135352284145</v>
+        <v>-0.05073898166186299</v>
       </c>
       <c r="F53">
-        <v>0.07083892444631798</v>
-      </c>
-    </row>
-    <row r="54" spans="1:6">
+        <v>-0.01795497046384612</v>
+      </c>
+      <c r="G53">
+        <v>0.0561672398299152</v>
+      </c>
+      <c r="H53">
+        <v>-0.02436961572857263</v>
+      </c>
+      <c r="I53">
+        <v>-0.0175718337091029</v>
+      </c>
+    </row>
+    <row r="54" spans="1:9">
       <c r="A54" s="1" t="s">
-        <v>57</v>
+        <v>60</v>
       </c>
       <c r="B54">
-        <v>0.0241668186580292</v>
+        <v>0.02659841370411596</v>
       </c>
       <c r="C54">
-        <v>-0.0237067282553755</v>
+        <v>0.004578152306978956</v>
       </c>
       <c r="D54">
-        <v>0.02684062813843276</v>
+        <v>-0.003834890649829474</v>
       </c>
       <c r="E54">
-        <v>-0.01500180798899018</v>
+        <v>-0.0300532704485293</v>
       </c>
       <c r="F54">
-        <v>-0.03821960711727086</v>
-      </c>
-    </row>
-    <row r="55" spans="1:6">
+        <v>-0.009378425212953579</v>
+      </c>
+      <c r="G54">
+        <v>-0.03097954522736831</v>
+      </c>
+      <c r="H54">
+        <v>-0.06154113905655566</v>
+      </c>
+      <c r="I54">
+        <v>-0.02635272195980629</v>
+      </c>
+    </row>
+    <row r="55" spans="1:9">
       <c r="A55" s="1" t="s">
-        <v>58</v>
+        <v>61</v>
       </c>
       <c r="B55">
-        <v>0.1069014640441519</v>
+        <v>0.09480497304928408</v>
       </c>
       <c r="C55">
-        <v>-0.02212200570490302</v>
+        <v>0.05063817561384231</v>
       </c>
       <c r="D55">
-        <v>0.02155138403662899</v>
+        <v>-0.009996684424145186</v>
       </c>
       <c r="E55">
-        <v>-0.04262550963454957</v>
+        <v>-0.04181731967494273</v>
       </c>
       <c r="F55">
-        <v>0.03519843058637803</v>
-      </c>
-    </row>
-    <row r="56" spans="1:6">
+        <v>-0.00694590359749417</v>
+      </c>
+      <c r="G55">
+        <v>0.04443144783986169</v>
+      </c>
+      <c r="H55">
+        <v>-0.02666148308534663</v>
+      </c>
+      <c r="I55">
+        <v>0.0191585816181478</v>
+      </c>
+    </row>
+    <row r="56" spans="1:9">
       <c r="A56" s="1" t="s">
-        <v>59</v>
+        <v>62</v>
       </c>
       <c r="B56">
-        <v>0.1415647182097071</v>
+        <v>0.144431146492177</v>
       </c>
       <c r="C56">
-        <v>-0.06435136170146015</v>
+        <v>0.05404193005709564</v>
       </c>
       <c r="D56">
-        <v>0.05358834750638056</v>
+        <v>8.091636480021538e-05</v>
       </c>
       <c r="E56">
-        <v>-0.04410548987801781</v>
+        <v>-0.07982999781607404</v>
       </c>
       <c r="F56">
-        <v>0.1127073619827057</v>
-      </c>
-    </row>
-    <row r="57" spans="1:6">
+        <v>-0.03097397027300807</v>
+      </c>
+      <c r="G56">
+        <v>0.1014077247962777</v>
+      </c>
+      <c r="H56">
+        <v>0.01016874505950082</v>
+      </c>
+      <c r="I56">
+        <v>0.02008619050599234</v>
+      </c>
+    </row>
+    <row r="57" spans="1:9">
       <c r="A57" s="1" t="s">
-        <v>60</v>
+        <v>63</v>
       </c>
       <c r="B57">
-        <v>0.06419262602586535</v>
+        <v>0.05557260370143328</v>
       </c>
       <c r="C57">
-        <v>-0.01428617297500871</v>
+        <v>0.02543555841101566</v>
       </c>
       <c r="D57">
-        <v>0.04808610032361908</v>
+        <v>0.01877975353357541</v>
       </c>
       <c r="E57">
-        <v>0.01139793941042538</v>
+        <v>0.009724370065487481</v>
       </c>
       <c r="F57">
-        <v>-0.06392492188685643</v>
-      </c>
-    </row>
-    <row r="58" spans="1:6">
+        <v>-0.03354359176006587</v>
+      </c>
+      <c r="G57">
+        <v>-0.05598633891302027</v>
+      </c>
+      <c r="H57">
+        <v>-0.03243650303763472</v>
+      </c>
+      <c r="I57">
+        <v>-0.02780036189071539</v>
+      </c>
+    </row>
+    <row r="58" spans="1:9">
       <c r="A58" s="1" t="s">
-        <v>61</v>
+        <v>64</v>
       </c>
       <c r="B58">
-        <v>0.2160305908205118</v>
+        <v>0.1919566148395342</v>
       </c>
       <c r="C58">
-        <v>-0.02373150709593506</v>
+        <v>0.1227338497341063</v>
       </c>
       <c r="D58">
-        <v>0.1374507464862768</v>
+        <v>0.1019313388549397</v>
       </c>
       <c r="E58">
-        <v>-0.002477182229674461</v>
+        <v>0.01892229882123047</v>
       </c>
       <c r="F58">
-        <v>-0.2681683032307599</v>
-      </c>
-    </row>
-    <row r="59" spans="1:6">
+        <v>-0.04979126390333734</v>
+      </c>
+      <c r="G58">
+        <v>-0.3722708903911857</v>
+      </c>
+      <c r="H58">
+        <v>-0.382175481504929</v>
+      </c>
+      <c r="I58">
+        <v>0.337558688388549</v>
+      </c>
+    </row>
+    <row r="59" spans="1:9">
       <c r="A59" s="1" t="s">
-        <v>62</v>
+        <v>65</v>
       </c>
       <c r="B59">
-        <v>0.05936485839528673</v>
+        <v>0.09800081186992858</v>
       </c>
       <c r="C59">
-        <v>-0.1232715704608236</v>
+        <v>-0.2087502210489351</v>
       </c>
       <c r="D59">
-        <v>-0.1317942068143208</v>
+        <v>0.02086465396197748</v>
       </c>
       <c r="E59">
-        <v>0.07674769174502873</v>
+        <v>-0.0003293622289590063</v>
       </c>
       <c r="F59">
-        <v>-0.02437430208333069</v>
-      </c>
-    </row>
-    <row r="60" spans="1:6">
+        <v>0.03693015312190761</v>
+      </c>
+      <c r="G59">
+        <v>-0.04571845850198861</v>
+      </c>
+      <c r="H59">
+        <v>-0.02465658686230069</v>
+      </c>
+      <c r="I59">
+        <v>-0.02224481988120084</v>
+      </c>
+    </row>
+    <row r="60" spans="1:9">
       <c r="A60" s="1" t="s">
-        <v>63</v>
+        <v>66</v>
       </c>
       <c r="B60">
-        <v>0.1812657467059943</v>
+        <v>0.1972158251517188</v>
       </c>
       <c r="C60">
-        <v>-0.07335211237389648</v>
+        <v>-0.01652584786639063</v>
       </c>
       <c r="D60">
-        <v>0.007655467050789076</v>
+        <v>0.06021357259094147</v>
       </c>
       <c r="E60">
-        <v>0.08340613573428578</v>
+        <v>-0.02363570003566324</v>
       </c>
       <c r="F60">
-        <v>-0.1483724572914704</v>
-      </c>
-    </row>
-    <row r="61" spans="1:6">
+        <v>-0.02781238881318902</v>
+      </c>
+      <c r="G60">
+        <v>-0.2087044948386389</v>
+      </c>
+      <c r="H60">
+        <v>0.3520308438183954</v>
+      </c>
+      <c r="I60">
+        <v>-0.05261540504307801</v>
+      </c>
+    </row>
+    <row r="61" spans="1:9">
       <c r="A61" s="1" t="s">
-        <v>64</v>
+        <v>67</v>
       </c>
       <c r="B61">
-        <v>0.03413054966722276</v>
+        <v>0.03589024657783549</v>
       </c>
       <c r="C61">
-        <v>-0.006140172616581172</v>
+        <v>0.0343677600184225</v>
       </c>
       <c r="D61">
-        <v>0.01949919926737058</v>
+        <v>0.0005917436580960088</v>
       </c>
       <c r="E61">
-        <v>-0.01477951587535753</v>
+        <v>-0.01447845595610642</v>
       </c>
       <c r="F61">
-        <v>-0.03564521785883926</v>
-      </c>
-    </row>
-    <row r="62" spans="1:6">
+        <v>-0.01809763200430274</v>
+      </c>
+      <c r="G61">
+        <v>-0.03789069569378866</v>
+      </c>
+      <c r="H61">
+        <v>0.01571860972581621</v>
+      </c>
+      <c r="I61">
+        <v>-0.01744086700256752</v>
+      </c>
+    </row>
+    <row r="62" spans="1:9">
       <c r="A62" s="1" t="s">
-        <v>65</v>
+        <v>68</v>
       </c>
       <c r="B62">
         <v>0</v>
@@ -1937,150 +2495,222 @@
       <c r="F62">
         <v>0</v>
       </c>
-    </row>
-    <row r="63" spans="1:6">
+      <c r="G62">
+        <v>0</v>
+      </c>
+      <c r="H62">
+        <v>0</v>
+      </c>
+      <c r="I62">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="63" spans="1:9">
       <c r="A63" s="1" t="s">
-        <v>66</v>
+        <v>69</v>
       </c>
       <c r="B63">
-        <v>0.03079503291810179</v>
+        <v>0.02554598407397072</v>
       </c>
       <c r="C63">
-        <v>-0.01670105721372481</v>
+        <v>0.02412933920534961</v>
       </c>
       <c r="D63">
-        <v>0.04127307119407943</v>
+        <v>0.002238471746947825</v>
       </c>
       <c r="E63">
-        <v>-0.01287826316287425</v>
+        <v>-0.01747759824492783</v>
       </c>
       <c r="F63">
-        <v>-0.04825376162346496</v>
-      </c>
-    </row>
-    <row r="64" spans="1:6">
+        <v>-0.01188258043540976</v>
+      </c>
+      <c r="G63">
+        <v>-0.02698737518069694</v>
+      </c>
+      <c r="H63">
+        <v>-0.04854686136219544</v>
+      </c>
+      <c r="I63">
+        <v>0.001035900789539006</v>
+      </c>
+    </row>
+    <row r="64" spans="1:9">
       <c r="A64" s="1" t="s">
-        <v>67</v>
+        <v>70</v>
       </c>
       <c r="B64">
-        <v>0.04861811920962242</v>
+        <v>0.04899825063048583</v>
       </c>
       <c r="C64">
-        <v>-0.006692063072939853</v>
+        <v>0.04273867875499796</v>
       </c>
       <c r="D64">
-        <v>0.04600450848220202</v>
+        <v>-0.009654588069163438</v>
       </c>
       <c r="E64">
-        <v>-0.05562638911392339</v>
+        <v>-0.02383239525129292</v>
       </c>
       <c r="F64">
-        <v>-0.04907780572226657</v>
-      </c>
-    </row>
-    <row r="65" spans="1:6">
+        <v>-0.01400680472629123</v>
+      </c>
+      <c r="G64">
+        <v>-0.04043997762456015</v>
+      </c>
+      <c r="H64">
+        <v>-0.03528647448516727</v>
+      </c>
+      <c r="I64">
+        <v>-0.05950200055252441</v>
+      </c>
+    </row>
+    <row r="65" spans="1:9">
       <c r="A65" s="1" t="s">
-        <v>68</v>
+        <v>71</v>
       </c>
       <c r="B65">
-        <v>0.004165434470084477</v>
+        <v>0.03143702426145982</v>
       </c>
       <c r="C65">
-        <v>0.0009997794455785492</v>
+        <v>0.01708572879552196</v>
       </c>
       <c r="D65">
-        <v>-0.000669848753793025</v>
+        <v>-0.001603748458062649</v>
       </c>
       <c r="E65">
-        <v>0.005092008833449024</v>
+        <v>-0.002629253750523604</v>
       </c>
       <c r="F65">
-        <v>-0.001890436069023753</v>
-      </c>
-    </row>
-    <row r="66" spans="1:6">
+        <v>-0.028248177039881</v>
+      </c>
+      <c r="G65">
+        <v>-0.01435336991787371</v>
+      </c>
+      <c r="H65">
+        <v>0.03769060148340971</v>
+      </c>
+      <c r="I65">
+        <v>0.004411923815445051</v>
+      </c>
+    </row>
+    <row r="66" spans="1:9">
       <c r="A66" s="1" t="s">
-        <v>69</v>
+        <v>72</v>
       </c>
       <c r="B66">
-        <v>0.05270846484243127</v>
+        <v>0.04925385855931871</v>
       </c>
       <c r="C66">
-        <v>-0.02051462719998396</v>
+        <v>0.06098322042392997</v>
       </c>
       <c r="D66">
-        <v>0.06044693343587797</v>
+        <v>0.01476891509179124</v>
       </c>
       <c r="E66">
-        <v>-0.02574733912372733</v>
+        <v>-0.03963798399721235</v>
       </c>
       <c r="F66">
-        <v>-0.08213637151298735</v>
-      </c>
-    </row>
-    <row r="67" spans="1:6">
+        <v>-0.03410772103726486</v>
+      </c>
+      <c r="G66">
+        <v>-0.06952634567694721</v>
+      </c>
+      <c r="H66">
+        <v>0.01929193767876273</v>
+      </c>
+      <c r="I66">
+        <v>-0.01157148876313802</v>
+      </c>
+    </row>
+    <row r="67" spans="1:9">
       <c r="A67" s="1" t="s">
-        <v>70</v>
+        <v>73</v>
       </c>
       <c r="B67">
-        <v>0.03551891229631584</v>
+        <v>0.04065439679936708</v>
       </c>
       <c r="C67">
-        <v>-0.01624669426176722</v>
+        <v>-0.003343992199181555</v>
       </c>
       <c r="D67">
-        <v>-0.02212418415385439</v>
+        <v>-0.001005523654025739</v>
       </c>
       <c r="E67">
-        <v>0.008162419534544354</v>
+        <v>-0.01299350046175866</v>
       </c>
       <c r="F67">
-        <v>-0.02170543939902073</v>
-      </c>
-    </row>
-    <row r="68" spans="1:6">
+        <v>0.0153027504740636</v>
+      </c>
+      <c r="G67">
+        <v>-0.03418373394005478</v>
+      </c>
+      <c r="H67">
+        <v>-0.005074471801170826</v>
+      </c>
+      <c r="I67">
+        <v>-0.04595459659446909</v>
+      </c>
+    </row>
+    <row r="68" spans="1:9">
       <c r="A68" s="1" t="s">
-        <v>71</v>
+        <v>74</v>
       </c>
       <c r="B68">
-        <v>0.07375468620312205</v>
+        <v>0.1007010052691706</v>
       </c>
       <c r="C68">
-        <v>-0.1152001685782501</v>
+        <v>-0.2325067629130627</v>
       </c>
       <c r="D68">
-        <v>-0.186151888869425</v>
+        <v>0.01669137688585523</v>
       </c>
       <c r="E68">
-        <v>0.1094220594696453</v>
+        <v>0.03107853481733687</v>
       </c>
       <c r="F68">
-        <v>0.01830968642310711</v>
-      </c>
-    </row>
-    <row r="69" spans="1:6">
+        <v>0.03902364033016389</v>
+      </c>
+      <c r="G68">
+        <v>4.64808652164387e-05</v>
+      </c>
+      <c r="H68">
+        <v>-0.04278145219400133</v>
+      </c>
+      <c r="I68">
+        <v>0.01677994517163176</v>
+      </c>
+    </row>
+    <row r="69" spans="1:9">
       <c r="A69" s="1" t="s">
-        <v>72</v>
+        <v>75</v>
       </c>
       <c r="B69">
-        <v>0.0714211145715761</v>
+        <v>0.06800339026212776</v>
       </c>
       <c r="C69">
-        <v>-0.0281801012459388</v>
+        <v>0.02576515656288827</v>
       </c>
       <c r="D69">
-        <v>0.02565842826503582</v>
+        <v>0.006509689918666567</v>
       </c>
       <c r="E69">
-        <v>0.001339297662516182</v>
+        <v>-0.03849657262552151</v>
       </c>
       <c r="F69">
-        <v>0.01369743218159873</v>
-      </c>
-    </row>
-    <row r="70" spans="1:6">
+        <v>0.009123313935646488</v>
+      </c>
+      <c r="G69">
+        <v>0.01058757006308982</v>
+      </c>
+      <c r="H69">
+        <v>-0.04390368500795126</v>
+      </c>
+      <c r="I69">
+        <v>-0.02195048571076115</v>
+      </c>
+    </row>
+    <row r="70" spans="1:9">
       <c r="A70" s="1" t="s">
-        <v>73</v>
+        <v>76</v>
       </c>
       <c r="B70">
         <v>0</v>
@@ -2097,170 +2727,251 @@
       <c r="F70">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="1:6">
+      <c r="G70">
+        <v>0</v>
+      </c>
+      <c r="H70">
+        <v>0</v>
+      </c>
+      <c r="I70">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="1:9">
       <c r="A71" s="1" t="s">
-        <v>74</v>
+        <v>77</v>
       </c>
       <c r="B71">
-        <v>0.06993324581568816</v>
+        <v>0.09781292642298414</v>
       </c>
       <c r="C71">
-        <v>-0.1398581012625872</v>
+        <v>-0.2521725892985234</v>
       </c>
       <c r="D71">
-        <v>-0.2327776695854813</v>
+        <v>0.02107555562283476</v>
       </c>
       <c r="E71">
-        <v>0.1829243332213654</v>
+        <v>0.03990736087886033</v>
       </c>
       <c r="F71">
-        <v>-0.01562317224196222</v>
-      </c>
-    </row>
-    <row r="72" spans="1:6">
+        <v>0.06952135538347308</v>
+      </c>
+      <c r="G71">
+        <v>-0.02719806470960417</v>
+      </c>
+      <c r="H71">
+        <v>-0.02557019969889712</v>
+      </c>
+      <c r="I71">
+        <v>-0.01359319433246382</v>
+      </c>
+    </row>
+    <row r="72" spans="1:9">
       <c r="A72" s="1" t="s">
-        <v>75</v>
+        <v>78</v>
       </c>
       <c r="B72">
-        <v>0.1263321614001097</v>
+        <v>0.1305534975516803</v>
       </c>
       <c r="C72">
-        <v>-0.08121060801204097</v>
+        <v>0.06427892002395623</v>
       </c>
       <c r="D72">
-        <v>0.04912408915863505</v>
+        <v>0.01557015983672988</v>
       </c>
       <c r="E72">
-        <v>-0.01981979631259806</v>
+        <v>-0.09842423118279418</v>
       </c>
       <c r="F72">
-        <v>-0.05251079896579879</v>
-      </c>
-    </row>
-    <row r="73" spans="1:6">
+        <v>-0.01826755713484037</v>
+      </c>
+      <c r="G72">
+        <v>-0.104718497812403</v>
+      </c>
+      <c r="H72">
+        <v>0.08662032273587196</v>
+      </c>
+      <c r="I72">
+        <v>-0.0194915259823692</v>
+      </c>
+    </row>
+    <row r="73" spans="1:9">
       <c r="A73" s="1" t="s">
-        <v>76</v>
+        <v>79</v>
       </c>
       <c r="B73">
-        <v>0.272746986422726</v>
+        <v>0.2749085695883057</v>
       </c>
       <c r="C73">
-        <v>-0.1130053993923798</v>
+        <v>-0.01326702290941833</v>
       </c>
       <c r="D73">
-        <v>-0.03529222496363003</v>
+        <v>0.09644000674117743</v>
       </c>
       <c r="E73">
-        <v>0.1240515450053874</v>
+        <v>0.001380592387380476</v>
       </c>
       <c r="F73">
-        <v>-0.2654307200978521</v>
-      </c>
-    </row>
-    <row r="74" spans="1:6">
+        <v>-0.00718863158918889</v>
+      </c>
+      <c r="G73">
+        <v>-0.3012902848551139</v>
+      </c>
+      <c r="H73">
+        <v>0.5221878128535652</v>
+      </c>
+      <c r="I73">
+        <v>-0.02302084968326572</v>
+      </c>
+    </row>
+    <row r="74" spans="1:9">
       <c r="A74" s="1" t="s">
-        <v>77</v>
+        <v>80</v>
       </c>
       <c r="B74">
-        <v>0.1394731376303003</v>
+        <v>0.136382467498941</v>
       </c>
       <c r="C74">
-        <v>-0.02786995091557574</v>
+        <v>0.06337372047943687</v>
       </c>
       <c r="D74">
-        <v>0.04640751533688033</v>
+        <v>0.008281212745380039</v>
       </c>
       <c r="E74">
-        <v>-0.020315036111872</v>
+        <v>-0.06362862602400213</v>
       </c>
       <c r="F74">
-        <v>0.06399524116553962</v>
-      </c>
-    </row>
-    <row r="75" spans="1:6">
+        <v>-0.008197225490722495</v>
+      </c>
+      <c r="G74">
+        <v>0.07819391978763113</v>
+      </c>
+      <c r="H74">
+        <v>0.02061419124864155</v>
+      </c>
+      <c r="I74">
+        <v>0.009319506263154918</v>
+      </c>
+    </row>
+    <row r="75" spans="1:9">
       <c r="A75" s="1" t="s">
-        <v>78</v>
+        <v>81</v>
       </c>
       <c r="B75">
-        <v>0.2175175093116895</v>
+        <v>0.2367293987682565</v>
       </c>
       <c r="C75">
-        <v>-0.08814321049344308</v>
+        <v>0.07172698515846217</v>
       </c>
       <c r="D75">
-        <v>0.0957650715708845</v>
+        <v>0.03022113703745578</v>
       </c>
       <c r="E75">
-        <v>-0.01895728965104279</v>
+        <v>-0.1255285391082235</v>
       </c>
       <c r="F75">
-        <v>0.1577023734733781</v>
-      </c>
-    </row>
-    <row r="76" spans="1:6">
+        <v>-0.04140261360220845</v>
+      </c>
+      <c r="G75">
+        <v>0.1519310312265142</v>
+      </c>
+      <c r="H75">
+        <v>-0.01657768986412048</v>
+      </c>
+      <c r="I75">
+        <v>-0.005542062644228931</v>
+      </c>
+    </row>
+    <row r="76" spans="1:9">
       <c r="A76" s="1" t="s">
-        <v>79</v>
+        <v>82</v>
       </c>
       <c r="B76">
-        <v>0.2403413727690955</v>
+        <v>0.2406987503101426</v>
       </c>
       <c r="C76">
-        <v>-0.1006014982775422</v>
+        <v>0.07657471373340714</v>
       </c>
       <c r="D76">
-        <v>0.05406547920694311</v>
+        <v>-0.01408656291885635</v>
       </c>
       <c r="E76">
-        <v>-0.08098161248740458</v>
+        <v>-0.1515946725318644</v>
       </c>
       <c r="F76">
-        <v>0.1563811325885732</v>
-      </c>
-    </row>
-    <row r="77" spans="1:6">
+        <v>-0.0339946906562949</v>
+      </c>
+      <c r="G76">
+        <v>0.1981029992955345</v>
+      </c>
+      <c r="H76">
+        <v>-0.002783561804055148</v>
+      </c>
+      <c r="I76">
+        <v>0.07364239925888033</v>
+      </c>
+    </row>
+    <row r="77" spans="1:9">
       <c r="A77" s="1" t="s">
-        <v>80</v>
+        <v>83</v>
       </c>
       <c r="B77">
-        <v>0.1450750479271715</v>
+        <v>0.1000983051131801</v>
       </c>
       <c r="C77">
-        <v>0.03371094527743848</v>
+        <v>0.08203987648142066</v>
       </c>
       <c r="D77">
-        <v>0.07269832710374707</v>
+        <v>0.01265711461894469</v>
       </c>
       <c r="E77">
-        <v>-0.004439770751577142</v>
+        <v>0.04611030818068827</v>
       </c>
       <c r="F77">
-        <v>-0.2103600852805302</v>
-      </c>
-    </row>
-    <row r="78" spans="1:6">
+        <v>-0.00656293673751285</v>
+      </c>
+      <c r="G77">
+        <v>-0.1481685050260107</v>
+      </c>
+      <c r="H77">
+        <v>-0.2236652484945072</v>
+      </c>
+      <c r="I77">
+        <v>0.06727229467746793</v>
+      </c>
+    </row>
+    <row r="78" spans="1:9">
       <c r="A78" s="1" t="s">
-        <v>81</v>
+        <v>84</v>
       </c>
       <c r="B78">
-        <v>0.0804243533946106</v>
+        <v>0.05696171699973932</v>
       </c>
       <c r="C78">
-        <v>0.01762786756003127</v>
+        <v>0.06830437608055176</v>
       </c>
       <c r="D78">
-        <v>0.08173628660949345</v>
+        <v>-0.0001465953263830328</v>
       </c>
       <c r="E78">
-        <v>-0.04805825116754396</v>
+        <v>-0.01492798374054939</v>
       </c>
       <c r="F78">
-        <v>-0.0450786702643976</v>
-      </c>
-    </row>
-    <row r="79" spans="1:6">
+        <v>-0.03583291969626571</v>
+      </c>
+      <c r="G78">
+        <v>-0.06747204876397155</v>
+      </c>
+      <c r="H78">
+        <v>-0.03130041717782434</v>
+      </c>
+      <c r="I78">
+        <v>-0.02055719546027224</v>
+      </c>
+    </row>
+    <row r="79" spans="1:9">
       <c r="A79" s="1" t="s">
-        <v>82</v>
+        <v>85</v>
       </c>
       <c r="B79">
         <v>0</v>
@@ -2277,50 +2988,77 @@
       <c r="F79">
         <v>0</v>
       </c>
-    </row>
-    <row r="80" spans="1:6">
+      <c r="G79">
+        <v>0</v>
+      </c>
+      <c r="H79">
+        <v>0</v>
+      </c>
+      <c r="I79">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="80" spans="1:9">
       <c r="A80" s="1" t="s">
-        <v>83</v>
+        <v>86</v>
       </c>
       <c r="B80">
-        <v>0.1410163805254899</v>
+        <v>0.1613951984425433</v>
       </c>
       <c r="C80">
-        <v>0.09469201333800893</v>
+        <v>-0.02068352808980068</v>
       </c>
       <c r="D80">
-        <v>-0.5091166640450596</v>
+        <v>-0.9718033320380037</v>
       </c>
       <c r="E80">
-        <v>-0.8170819764075684</v>
+        <v>0.04835800390400145</v>
       </c>
       <c r="F80">
-        <v>-0.09082744234542178</v>
-      </c>
-    </row>
-    <row r="81" spans="1:6">
+        <v>-0.01829985966705027</v>
+      </c>
+      <c r="G80">
+        <v>-0.07150137202243721</v>
+      </c>
+      <c r="H80">
+        <v>0.02628851901852142</v>
+      </c>
+      <c r="I80">
+        <v>-0.0429594687680139</v>
+      </c>
+    </row>
+    <row r="81" spans="1:9">
       <c r="A81" s="1" t="s">
-        <v>84</v>
+        <v>87</v>
       </c>
       <c r="B81">
-        <v>0.1678255450637965</v>
+        <v>0.1793203642678632</v>
       </c>
       <c r="C81">
-        <v>-0.06916499820203689</v>
+        <v>0.05446348076440048</v>
       </c>
       <c r="D81">
-        <v>0.05288359056748326</v>
+        <v>0.005791060659824622</v>
       </c>
       <c r="E81">
-        <v>-0.03227903598198243</v>
+        <v>-0.1067611536342615</v>
       </c>
       <c r="F81">
-        <v>0.1618248627134679</v>
-      </c>
-    </row>
-    <row r="82" spans="1:6">
+        <v>-0.02809446924995165</v>
+      </c>
+      <c r="G81">
+        <v>0.1422583227612979</v>
+      </c>
+      <c r="H81">
+        <v>-0.01771228191773791</v>
+      </c>
+      <c r="I81">
+        <v>0.04777366933907136</v>
+      </c>
+    </row>
+    <row r="82" spans="1:9">
       <c r="A82" s="1" t="s">
-        <v>85</v>
+        <v>88</v>
       </c>
       <c r="B82">
         <v>0</v>
@@ -2337,30 +3075,48 @@
       <c r="F82">
         <v>0</v>
       </c>
-    </row>
-    <row r="83" spans="1:6">
+      <c r="G82">
+        <v>0</v>
+      </c>
+      <c r="H82">
+        <v>0</v>
+      </c>
+      <c r="I82">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="83" spans="1:9">
       <c r="A83" s="1" t="s">
-        <v>86</v>
+        <v>89</v>
       </c>
       <c r="B83">
-        <v>0.0594418138128139</v>
+        <v>0.04773664866100391</v>
       </c>
       <c r="C83">
-        <v>0.04492681953362809</v>
+        <v>0.04649787314641458</v>
       </c>
       <c r="D83">
-        <v>0.06676731323620728</v>
+        <v>0.01192146965401653</v>
       </c>
       <c r="E83">
-        <v>-0.007365156973767916</v>
+        <v>0.01398126007207566</v>
       </c>
       <c r="F83">
-        <v>-0.03866772812078851</v>
-      </c>
-    </row>
-    <row r="84" spans="1:6">
+        <v>0.002150714096174128</v>
+      </c>
+      <c r="G83">
+        <v>-0.05121364326360254</v>
+      </c>
+      <c r="H83">
+        <v>-0.03050864324749708</v>
+      </c>
+      <c r="I83">
+        <v>-0.02610184308293084</v>
+      </c>
+    </row>
+    <row r="84" spans="1:9">
       <c r="A84" s="1" t="s">
-        <v>87</v>
+        <v>90</v>
       </c>
       <c r="B84">
         <v>0</v>
@@ -2377,230 +3133,338 @@
       <c r="F84">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="1:6">
+      <c r="G84">
+        <v>0</v>
+      </c>
+      <c r="H84">
+        <v>0</v>
+      </c>
+      <c r="I84">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="1:9">
       <c r="A85" s="1" t="s">
-        <v>88</v>
+        <v>91</v>
       </c>
       <c r="B85">
-        <v>0.2195663196193952</v>
+        <v>0.2305978298826771</v>
       </c>
       <c r="C85">
-        <v>-0.04904494001108727</v>
+        <v>0.1028909956158673</v>
       </c>
       <c r="D85">
-        <v>0.08006832373021489</v>
+        <v>0.01534859631766824</v>
       </c>
       <c r="E85">
-        <v>-0.0656163968671037</v>
+        <v>-0.1075729287011576</v>
       </c>
       <c r="F85">
-        <v>0.1874276391604871</v>
-      </c>
-    </row>
-    <row r="86" spans="1:6">
+        <v>-0.05650045706740388</v>
+      </c>
+      <c r="G85">
+        <v>0.1906313753014783</v>
+      </c>
+      <c r="H85">
+        <v>-0.01032833095454468</v>
+      </c>
+      <c r="I85">
+        <v>0.02619622841955673</v>
+      </c>
+    </row>
+    <row r="86" spans="1:9">
       <c r="A86" s="1" t="s">
-        <v>89</v>
+        <v>92</v>
       </c>
       <c r="B86">
-        <v>0.02182101853194825</v>
+        <v>0.01672252750001754</v>
       </c>
       <c r="C86">
-        <v>0.008602416826397726</v>
+        <v>0.04307223690671845</v>
       </c>
       <c r="D86">
-        <v>0.06051216931270396</v>
+        <v>0.001401352557287472</v>
       </c>
       <c r="E86">
-        <v>-0.017886828959465</v>
+        <v>-0.02319785240347738</v>
       </c>
       <c r="F86">
-        <v>-0.08654841013228978</v>
-      </c>
-    </row>
-    <row r="87" spans="1:6">
+        <v>0.01618507861633904</v>
+      </c>
+      <c r="G86">
+        <v>-0.086206750569412</v>
+      </c>
+      <c r="H86">
+        <v>-0.06366138313160531</v>
+      </c>
+      <c r="I86">
+        <v>-0.0002999326790607256</v>
+      </c>
+    </row>
+    <row r="87" spans="1:9">
       <c r="A87" s="1" t="s">
-        <v>90</v>
+        <v>93</v>
       </c>
       <c r="B87">
-        <v>0.01632443874457059</v>
+        <v>0.02554488033492946</v>
       </c>
       <c r="C87">
-        <v>-0.03475890225887711</v>
+        <v>-0.01056466518648492</v>
       </c>
       <c r="D87">
-        <v>-0.0421577641969049</v>
+        <v>-0.0005116809386298266</v>
       </c>
       <c r="E87">
-        <v>0.03209069938405347</v>
+        <v>-0.0005284954543630975</v>
       </c>
       <c r="F87">
-        <v>-0.09940382320355354</v>
-      </c>
-    </row>
-    <row r="88" spans="1:6">
+        <v>-0.003589501870857421</v>
+      </c>
+      <c r="G87">
+        <v>-0.1081790705181647</v>
+      </c>
+      <c r="H87">
+        <v>-0.004476509815718082</v>
+      </c>
+      <c r="I87">
+        <v>0.01612059021111843</v>
+      </c>
+    </row>
+    <row r="88" spans="1:9">
       <c r="A88" s="1" t="s">
-        <v>91</v>
+        <v>94</v>
       </c>
       <c r="B88">
-        <v>0.0127068950461349</v>
+        <v>0.03285348184867168</v>
       </c>
       <c r="C88">
-        <v>-0.01109918329681471</v>
+        <v>-0.005860709511849472</v>
       </c>
       <c r="D88">
-        <v>-0.004644955086866792</v>
+        <v>-0.003923605150482505</v>
       </c>
       <c r="E88">
-        <v>-0.01962985925803604</v>
+        <v>-0.0121313814813373</v>
       </c>
       <c r="F88">
-        <v>0.005786515538165759</v>
-      </c>
-    </row>
-    <row r="89" spans="1:6">
+        <v>-0.001274506333879264</v>
+      </c>
+      <c r="G88">
+        <v>0.007015394324410752</v>
+      </c>
+      <c r="H88">
+        <v>-0.01766268355356235</v>
+      </c>
+      <c r="I88">
+        <v>-0.06175708622348521</v>
+      </c>
+    </row>
+    <row r="89" spans="1:9">
       <c r="A89" s="1" t="s">
-        <v>92</v>
+        <v>95</v>
       </c>
       <c r="B89">
-        <v>0.1091463147564363</v>
+        <v>0.1643823974755675</v>
       </c>
       <c r="C89">
-        <v>-0.1361701422933815</v>
+        <v>-0.3748444645001299</v>
       </c>
       <c r="D89">
-        <v>-0.261529325613458</v>
+        <v>0.0520127961107725</v>
       </c>
       <c r="E89">
-        <v>0.1982846053799595</v>
+        <v>0.05833064968997803</v>
       </c>
       <c r="F89">
-        <v>-0.00091525961009042</v>
-      </c>
-    </row>
-    <row r="90" spans="1:6">
+        <v>0.07689342730726895</v>
+      </c>
+      <c r="G89">
+        <v>-0.005447885456168561</v>
+      </c>
+      <c r="H89">
+        <v>-0.103346572011453</v>
+      </c>
+      <c r="I89">
+        <v>0.0008802836727062113</v>
+      </c>
+    </row>
+    <row r="90" spans="1:9">
       <c r="A90" s="1" t="s">
-        <v>93</v>
+        <v>96</v>
       </c>
       <c r="B90">
-        <v>0.08928760539895103</v>
+        <v>0.1155771075384972</v>
       </c>
       <c r="C90">
-        <v>-0.1337798969230564</v>
+        <v>-0.3131295660304532</v>
       </c>
       <c r="D90">
-        <v>-0.2594206897171669</v>
+        <v>0.02471292699982984</v>
       </c>
       <c r="E90">
-        <v>0.1318238570527215</v>
+        <v>0.04858559326464209</v>
       </c>
       <c r="F90">
-        <v>-0.003201918383784297</v>
-      </c>
-    </row>
-    <row r="91" spans="1:6">
+        <v>0.07143202317948676</v>
+      </c>
+      <c r="G90">
+        <v>0.02142353351503032</v>
+      </c>
+      <c r="H90">
+        <v>-0.06852478062757308</v>
+      </c>
+      <c r="I90">
+        <v>0.005629215220522682</v>
+      </c>
+    </row>
+    <row r="91" spans="1:9">
       <c r="A91" s="1" t="s">
-        <v>94</v>
+        <v>97</v>
       </c>
       <c r="B91">
-        <v>0.2737150162191064</v>
+        <v>0.2680562464365385</v>
       </c>
       <c r="C91">
-        <v>-0.05420362240532489</v>
+        <v>0.1228873740665063</v>
       </c>
       <c r="D91">
-        <v>0.1159953549875153</v>
+        <v>0.01789792356026525</v>
       </c>
       <c r="E91">
-        <v>-0.08286220730489752</v>
+        <v>-0.1279465206691479</v>
       </c>
       <c r="F91">
-        <v>0.2521301004937853</v>
-      </c>
-    </row>
-    <row r="92" spans="1:6">
+        <v>-0.02610573109488371</v>
+      </c>
+      <c r="G91">
+        <v>0.2541777338445628</v>
+      </c>
+      <c r="H91">
+        <v>-0.03332231232275561</v>
+      </c>
+      <c r="I91">
+        <v>0.0723311493644878</v>
+      </c>
+    </row>
+    <row r="92" spans="1:9">
       <c r="A92" s="1" t="s">
-        <v>95</v>
+        <v>98</v>
       </c>
       <c r="B92">
-        <v>0.1388173577799188</v>
+        <v>0.2033423102896312</v>
       </c>
       <c r="C92">
-        <v>-0.1041660720826937</v>
+        <v>-0.3131956128971491</v>
       </c>
       <c r="D92">
-        <v>-0.2896914971866257</v>
+        <v>0.00853041652707137</v>
       </c>
       <c r="E92">
-        <v>0.13886298176419</v>
+        <v>0.02242094469996</v>
       </c>
       <c r="F92">
-        <v>0.01792679286059426</v>
-      </c>
-    </row>
-    <row r="93" spans="1:6">
+        <v>0.1406687970872993</v>
+      </c>
+      <c r="G92">
+        <v>0.07561905853735346</v>
+      </c>
+      <c r="H92">
+        <v>-0.1681502940304861</v>
+      </c>
+      <c r="I92">
+        <v>0.009774302020660913</v>
+      </c>
+    </row>
+    <row r="93" spans="1:9">
       <c r="A93" s="1" t="s">
-        <v>96</v>
+        <v>99</v>
       </c>
       <c r="B93">
-        <v>0.09260748822674564</v>
+        <v>0.1439369235577942</v>
       </c>
       <c r="C93">
-        <v>-0.1299734270647594</v>
+        <v>-0.3750595847629467</v>
       </c>
       <c r="D93">
-        <v>-0.3200768364787835</v>
+        <v>0.03839075682069025</v>
       </c>
       <c r="E93">
-        <v>0.1775718949739829</v>
+        <v>0.07941112893462092</v>
       </c>
       <c r="F93">
-        <v>0.05699004336470188</v>
-      </c>
-    </row>
-    <row r="94" spans="1:6">
+        <v>0.1170358151029104</v>
+      </c>
+      <c r="G93">
+        <v>0.03499259421448955</v>
+      </c>
+      <c r="H93">
+        <v>-0.01491600277539419</v>
+      </c>
+      <c r="I93">
+        <v>-0.02969434550683876</v>
+      </c>
+    </row>
+    <row r="94" spans="1:9">
       <c r="A94" s="1" t="s">
-        <v>97</v>
+        <v>100</v>
       </c>
       <c r="B94">
-        <v>0.2664886502053007</v>
+        <v>0.2945113353783099</v>
       </c>
       <c r="C94">
-        <v>-0.1097553261827819</v>
+        <v>0.03850582779881864</v>
       </c>
       <c r="D94">
-        <v>0.00111141014757985</v>
+        <v>0.03788393434549976</v>
       </c>
       <c r="E94">
-        <v>-0.01993895621534664</v>
+        <v>-0.1364507603781764</v>
       </c>
       <c r="F94">
-        <v>0.2496453493572454</v>
-      </c>
-    </row>
-    <row r="95" spans="1:6">
+        <v>-0.06121522864365032</v>
+      </c>
+      <c r="G94">
+        <v>0.2815136740626453</v>
+      </c>
+      <c r="H94">
+        <v>-0.008616221639483498</v>
+      </c>
+      <c r="I94">
+        <v>0.2235775354123807</v>
+      </c>
+    </row>
+    <row r="95" spans="1:9">
       <c r="A95" s="1" t="s">
-        <v>98</v>
+        <v>101</v>
       </c>
       <c r="B95">
-        <v>0.1388817755270002</v>
+        <v>0.1165167867978724</v>
       </c>
       <c r="C95">
-        <v>0.01448383509962287</v>
+        <v>0.09881407133447431</v>
       </c>
       <c r="D95">
-        <v>0.1985395574042254</v>
+        <v>0.08105834509018975</v>
       </c>
       <c r="E95">
-        <v>-0.04371118123003715</v>
+        <v>-0.07328958953023532</v>
       </c>
       <c r="F95">
-        <v>0.419387396882839</v>
-      </c>
-    </row>
-    <row r="96" spans="1:6">
+        <v>0.04915364753393037</v>
+      </c>
+      <c r="G95">
+        <v>0.08442139859790534</v>
+      </c>
+      <c r="H95">
+        <v>-0.1545554198258045</v>
+      </c>
+      <c r="I95">
+        <v>-0.8685940992373454</v>
+      </c>
+    </row>
+    <row r="96" spans="1:9">
       <c r="A96" s="1" t="s">
-        <v>99</v>
+        <v>102</v>
       </c>
       <c r="B96">
         <v>0</v>
@@ -2617,10 +3481,19 @@
       <c r="F96">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="1:6">
+      <c r="G96">
+        <v>0</v>
+      </c>
+      <c r="H96">
+        <v>0</v>
+      </c>
+      <c r="I96">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="1:9">
       <c r="A97" s="1" t="s">
-        <v>100</v>
+        <v>103</v>
       </c>
       <c r="B97">
         <v>0</v>
@@ -2637,30 +3510,48 @@
       <c r="F97">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="1:6">
+      <c r="G97">
+        <v>0</v>
+      </c>
+      <c r="H97">
+        <v>0</v>
+      </c>
+      <c r="I97">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="1:9">
       <c r="A98" s="1" t="s">
-        <v>101</v>
+        <v>104</v>
       </c>
       <c r="B98">
-        <v>0.2074448509411102</v>
+        <v>0.2125338488916798</v>
       </c>
       <c r="C98">
-        <v>-0.04901858004119053</v>
+        <v>-0.01472571000353164</v>
       </c>
       <c r="D98">
-        <v>-0.004683701700659923</v>
+        <v>0.06644963741992187</v>
       </c>
       <c r="E98">
-        <v>0.08829483511928034</v>
+        <v>0.004109108690860443</v>
       </c>
       <c r="F98">
-        <v>-0.09193269831529136</v>
-      </c>
-    </row>
-    <row r="99" spans="1:6">
+        <v>0.0141142236088701</v>
+      </c>
+      <c r="G98">
+        <v>-0.2207354657253381</v>
+      </c>
+      <c r="H98">
+        <v>0.3647185013371837</v>
+      </c>
+      <c r="I98">
+        <v>-0.03121759032468366</v>
+      </c>
+    </row>
+    <row r="99" spans="1:9">
       <c r="A99" s="1" t="s">
-        <v>102</v>
+        <v>105</v>
       </c>
       <c r="B99">
         <v>0</v>
@@ -2677,10 +3568,19 @@
       <c r="F99">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="1:6">
+      <c r="G99">
+        <v>0</v>
+      </c>
+      <c r="H99">
+        <v>0</v>
+      </c>
+      <c r="I99">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="1:9">
       <c r="A100" s="1" t="s">
-        <v>103</v>
+        <v>106</v>
       </c>
       <c r="B100">
         <v>0</v>
@@ -2697,85 +3597,130 @@
       <c r="F100">
         <v>0</v>
       </c>
-    </row>
-    <row r="101" spans="1:6">
+      <c r="G100">
+        <v>0</v>
+      </c>
+      <c r="H100">
+        <v>0</v>
+      </c>
+      <c r="I100">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="101" spans="1:9">
       <c r="A101" s="1" t="s">
-        <v>104</v>
+        <v>107</v>
       </c>
       <c r="B101">
-        <v>0.001654657105562998</v>
+        <v>0.01448525501978003</v>
       </c>
       <c r="C101">
-        <v>-0.0149356573409765</v>
+        <v>0.02573877408045019</v>
       </c>
       <c r="D101">
-        <v>0.06331296635117821</v>
+        <v>-0.001952470402397294</v>
       </c>
       <c r="E101">
-        <v>-0.04202241808049001</v>
+        <v>-0.02679256258543878</v>
       </c>
       <c r="F101">
-        <v>-0.0282809703408958</v>
-      </c>
-    </row>
-    <row r="102" spans="1:6">
+        <v>-0.03160115065572329</v>
+      </c>
+      <c r="G101">
+        <v>-0.07047229775494969</v>
+      </c>
+      <c r="H101">
+        <v>-0.1190560351018777</v>
+      </c>
+      <c r="I101">
+        <v>0.01835571387580002</v>
+      </c>
+    </row>
+    <row r="102" spans="1:9">
       <c r="A102" s="1" t="s">
-        <v>105</v>
+        <v>108</v>
       </c>
       <c r="B102">
-        <v>0.08967895927793189</v>
+        <v>0.1127053680844244</v>
       </c>
       <c r="C102">
-        <v>-0.02315289675342327</v>
+        <v>0.04257753501014783</v>
       </c>
       <c r="D102">
-        <v>0.04245270791205936</v>
+        <v>0.001359011236855256</v>
       </c>
       <c r="E102">
-        <v>-0.0469102658668173</v>
+        <v>-0.04916267137848459</v>
       </c>
       <c r="F102">
-        <v>0.09811567476580384</v>
-      </c>
-    </row>
-    <row r="103" spans="1:6">
+        <v>-0.03399672039562146</v>
+      </c>
+      <c r="G102">
+        <v>0.1105693259955178</v>
+      </c>
+      <c r="H102">
+        <v>-0.006727078319888911</v>
+      </c>
+      <c r="I102">
+        <v>0.009776663156255102</v>
+      </c>
+    </row>
+    <row r="103" spans="1:9">
       <c r="A103" s="1" t="s">
-        <v>106</v>
+        <v>109</v>
       </c>
       <c r="B103">
-        <v>0.01475823027199435</v>
+        <v>0.02411416229425332</v>
       </c>
       <c r="C103">
-        <v>-0.008548475069753285</v>
+        <v>0.01007766514478109</v>
       </c>
       <c r="D103">
-        <v>0.002193698207033399</v>
+        <v>-0.008383019639352141</v>
       </c>
       <c r="E103">
-        <v>-0.008361207034787186</v>
+        <v>-0.01560720066529482</v>
       </c>
       <c r="F103">
-        <v>0.02296040643385871</v>
-      </c>
-    </row>
-    <row r="104" spans="1:6">
+        <v>-0.007175230917355583</v>
+      </c>
+      <c r="G103">
+        <v>0.01997327730686055</v>
+      </c>
+      <c r="H103">
+        <v>-0.01665629412113402</v>
+      </c>
+      <c r="I103">
+        <v>-0.001567745677434095</v>
+      </c>
+    </row>
+    <row r="104" spans="1:9">
       <c r="A104" s="1" t="s">
-        <v>107</v>
+        <v>110</v>
       </c>
       <c r="B104">
-        <v>0</v>
+        <v>0.06633222625469674</v>
       </c>
       <c r="C104">
-        <v>0</v>
+        <v>-0.1526655916832862</v>
       </c>
       <c r="D104">
-        <v>0</v>
+        <v>0.04494132778761001</v>
       </c>
       <c r="E104">
-        <v>0</v>
+        <v>0.402878163490596</v>
       </c>
       <c r="F104">
-        <v>0</v>
+        <v>-0.8826333709202419</v>
+      </c>
+      <c r="G104">
+        <v>0.08273972526312723</v>
+      </c>
+      <c r="H104">
+        <v>-0.02013459314127803</v>
+      </c>
+      <c r="I104">
+        <v>-0.08072781484828299</v>
       </c>
     </row>
   </sheetData>
